--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.005616666666666</v>
+        <v>0.02746</v>
       </c>
       <c r="H2">
-        <v>21.01685</v>
+        <v>0.08237999999999999</v>
       </c>
       <c r="I2">
-        <v>0.3190354092819215</v>
+        <v>0.001833039026508975</v>
       </c>
       <c r="J2">
-        <v>0.3190354092819216</v>
+        <v>0.001833039026508975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.88086666666666</v>
+        <v>2.307850666666667</v>
       </c>
       <c r="N2">
-        <v>176.6426</v>
+        <v>6.923552000000001</v>
       </c>
       <c r="O2">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="P2">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="Q2">
-        <v>412.4967808677777</v>
+        <v>0.06337357930666666</v>
       </c>
       <c r="R2">
-        <v>3712.471027809999</v>
+        <v>0.5703622137600001</v>
       </c>
       <c r="S2">
-        <v>0.08991650679843669</v>
+        <v>2.776861883817019E-05</v>
       </c>
       <c r="T2">
-        <v>0.0899165067984367</v>
+        <v>2.776861883817019E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.005616666666666</v>
+        <v>0.02746</v>
       </c>
       <c r="H3">
-        <v>21.01685</v>
+        <v>0.08237999999999999</v>
       </c>
       <c r="I3">
-        <v>0.3190354092819215</v>
+        <v>0.001833039026508975</v>
       </c>
       <c r="J3">
-        <v>0.3190354092819216</v>
+        <v>0.001833039026508975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>332.225341</v>
       </c>
       <c r="O3">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="P3">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="Q3">
-        <v>775.8144619995387</v>
+        <v>3.040969287953333</v>
       </c>
       <c r="R3">
-        <v>6982.330157995849</v>
+        <v>27.36872359158</v>
       </c>
       <c r="S3">
-        <v>0.1691128987720937</v>
+        <v>0.001332471954079368</v>
       </c>
       <c r="T3">
-        <v>0.1691128987720938</v>
+        <v>0.001332471954079368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.005616666666666</v>
+        <v>0.02746</v>
       </c>
       <c r="H4">
-        <v>21.01685</v>
+        <v>0.08237999999999999</v>
       </c>
       <c r="I4">
-        <v>0.3190354092819215</v>
+        <v>0.001833039026508975</v>
       </c>
       <c r="J4">
-        <v>0.3190354092819216</v>
+        <v>0.001833039026508975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.29429233333334</v>
+        <v>39.29429233333333</v>
       </c>
       <c r="N4">
         <v>117.882877</v>
       </c>
       <c r="O4">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="P4">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="Q4">
-        <v>275.2807492752722</v>
+        <v>1.079021267473333</v>
       </c>
       <c r="R4">
-        <v>2477.52674347745</v>
+        <v>9.711191407259999</v>
       </c>
       <c r="S4">
-        <v>0.06000600371139112</v>
+        <v>0.0004727984535914367</v>
       </c>
       <c r="T4">
-        <v>0.06000600371139113</v>
+        <v>0.0004727984535914367</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>42.112904</v>
       </c>
       <c r="I5">
-        <v>0.6392731338754509</v>
+        <v>0.9370550686043448</v>
       </c>
       <c r="J5">
-        <v>0.639273133875451</v>
+        <v>0.9370550686043447</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.88086666666666</v>
+        <v>2.307850666666667</v>
       </c>
       <c r="N5">
-        <v>176.6426</v>
+        <v>6.923552000000001</v>
       </c>
       <c r="O5">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="P5">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="Q5">
-        <v>826.5480951233777</v>
+        <v>32.39676452388979</v>
       </c>
       <c r="R5">
-        <v>7438.932856110399</v>
+        <v>291.5708807150081</v>
       </c>
       <c r="S5">
-        <v>0.1801718725126701</v>
+        <v>0.01419540154581759</v>
       </c>
       <c r="T5">
-        <v>0.1801718725126702</v>
+        <v>0.01419540154581759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>42.112904</v>
       </c>
       <c r="I6">
-        <v>0.6392731338754509</v>
+        <v>0.9370550686043448</v>
       </c>
       <c r="J6">
-        <v>0.639273133875451</v>
+        <v>0.9370550686043447</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>332.225341</v>
       </c>
       <c r="O6">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="P6">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="Q6">
         <v>1554.552654655585</v>
@@ -818,10 +818,10 @@
         <v>13990.97389190026</v>
       </c>
       <c r="S6">
-        <v>0.3388631156025237</v>
+        <v>0.6811636742514788</v>
       </c>
       <c r="T6">
-        <v>0.3388631156025238</v>
+        <v>0.6811636742514788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>42.112904</v>
       </c>
       <c r="I7">
-        <v>0.6392731338754509</v>
+        <v>0.9370550686043448</v>
       </c>
       <c r="J7">
-        <v>0.639273133875451</v>
+        <v>0.9370550686043447</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.29429233333334</v>
+        <v>39.29429233333333</v>
       </c>
       <c r="N7">
         <v>117.882877</v>
       </c>
       <c r="O7">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="P7">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="Q7">
-        <v>551.5989202605343</v>
+        <v>551.5989202605342</v>
       </c>
       <c r="R7">
         <v>4964.390282344808</v>
       </c>
       <c r="S7">
-        <v>0.120238145760257</v>
+        <v>0.2416959928070482</v>
       </c>
       <c r="T7">
-        <v>0.1202381457602571</v>
+        <v>0.2416959928070482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.915492</v>
+        <v>0.9154919999999999</v>
       </c>
       <c r="H8">
-        <v>2.746476</v>
+        <v>2.746475999999999</v>
       </c>
       <c r="I8">
-        <v>0.04169145684262745</v>
+        <v>0.06111189236914619</v>
       </c>
       <c r="J8">
-        <v>0.04169145684262746</v>
+        <v>0.06111189236914619</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.88086666666666</v>
+        <v>2.307850666666667</v>
       </c>
       <c r="N8">
-        <v>176.6426</v>
+        <v>6.923552000000001</v>
       </c>
       <c r="O8">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="P8">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="Q8">
-        <v>53.90496238639999</v>
+        <v>2.112818822528</v>
       </c>
       <c r="R8">
-        <v>485.1446614775999</v>
+        <v>19.015369402752</v>
       </c>
       <c r="S8">
-        <v>0.01175026361827501</v>
+        <v>0.0009257810778366388</v>
       </c>
       <c r="T8">
-        <v>0.01175026361827501</v>
+        <v>0.0009257810778366388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.915492</v>
+        <v>0.9154919999999999</v>
       </c>
       <c r="H9">
-        <v>2.746476</v>
+        <v>2.746475999999999</v>
       </c>
       <c r="I9">
-        <v>0.04169145684262745</v>
+        <v>0.06111189236914619</v>
       </c>
       <c r="J9">
-        <v>0.04169145684262746</v>
+        <v>0.06111189236914619</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>332.225341</v>
       </c>
       <c r="O9">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="P9">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="Q9">
         <v>101.383213960924</v>
@@ -1004,10 +1004,10 @@
         <v>912.4489256483158</v>
       </c>
       <c r="S9">
-        <v>0.0220996256702591</v>
+        <v>0.04442343096081677</v>
       </c>
       <c r="T9">
-        <v>0.0220996256702591</v>
+        <v>0.04442343096081677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.915492</v>
+        <v>0.9154919999999999</v>
       </c>
       <c r="H10">
-        <v>2.746476</v>
+        <v>2.746475999999999</v>
       </c>
       <c r="I10">
-        <v>0.04169145684262745</v>
+        <v>0.06111189236914619</v>
       </c>
       <c r="J10">
-        <v>0.04169145684262746</v>
+        <v>0.06111189236914619</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.29429233333334</v>
+        <v>39.29429233333333</v>
       </c>
       <c r="N10">
         <v>117.882877</v>
       </c>
       <c r="O10">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="P10">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="Q10">
-        <v>35.973610276828</v>
+        <v>35.97361027682799</v>
       </c>
       <c r="R10">
-        <v>323.762492491452</v>
+        <v>323.7624924914519</v>
       </c>
       <c r="S10">
-        <v>0.007841567554093341</v>
+        <v>0.01576268033049277</v>
       </c>
       <c r="T10">
-        <v>0.007841567554093341</v>
+        <v>0.01576268033049277</v>
       </c>
     </row>
   </sheetData>
